--- a/dataland-framework-toolbox/inputs/heimathafen/dataDictionary-Heimathafen.xlsx
+++ b/dataland-framework-toolbox/inputs/heimathafen/dataDictionary-Heimathafen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d92432\Documents\Projekte\02-Dataland\Dataland\dataland-framework-toolbox\inputs\heimathafen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7428D0F2-420A-4ECC-AEFD-44194A87297F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057A6E52-3A3B-4C53-A236-7C648D1B4D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="327">
   <si>
     <t>Field Identifier</t>
   </si>
@@ -1105,6 +1105,9 @@
   </si>
   <si>
     <t>Rund um die Uhr Verfügbarkeit</t>
+  </si>
+  <si>
+    <t>FreeText</t>
   </si>
 </sst>
 </file>
@@ -1768,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EA20BB-8F3E-44CB-A7F2-F957706EDEE9}">
   <dimension ref="A1:L1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="E249" sqref="E249"/>
+    <sheetView tabSelected="1" topLeftCell="D214" workbookViewId="0">
+      <selection activeCell="K243" sqref="K243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5700,7 +5703,9 @@
         <v>60</v>
       </c>
       <c r="E139" s="12"/>
-      <c r="F139" s="12"/>
+      <c r="F139" s="12" t="s">
+        <v>326</v>
+      </c>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
@@ -8701,9 +8706,7 @@
         <v>251</v>
       </c>
       <c r="J243" s="12"/>
-      <c r="K243" s="12" t="s">
-        <v>64</v>
-      </c>
+      <c r="K243" s="12"/>
       <c r="L243" s="13"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.35">
